--- a/Problems2.xlsx
+++ b/Problems2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/MIPT/2024:2025/Data base/DB_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8579B927-FC56-3844-A23F-F4B9A72AB7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741AD22E-322B-554E-BDC3-74C4499961CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{9F710AB5-FC6E-4883-A3B6-7E25952EFCD1}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21360" xr2:uid="{9F710AB5-FC6E-4883-A3B6-7E25952EFCD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Var1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Приведите пример супертипа сущности, не имеющего собственных экземпляров. </t>
   </si>
@@ -286,6 +286,24 @@
       </rPr>
       <t>}</t>
     </r>
+  </si>
+  <si>
+    <t>Диаграма последовательностей</t>
+  </si>
+  <si>
+    <t>Диаграма взаимодействий</t>
+  </si>
+  <si>
+    <t>context Водитель inv:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> self.возраст &gt;= 18</t>
+  </si>
+  <si>
+    <t>context Автомобиль inv:</t>
+  </si>
+  <si>
+    <t>self.количествоЛетПослеВыпуска &lt;= 30</t>
   </si>
 </sst>
 </file>
@@ -333,12 +351,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -353,11 +377,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -388,13 +416,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>119863</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -430,23 +458,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>669889</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>196547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114530</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15119</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>132022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
+        <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BE2E1E-4430-D4FE-5286-CF8A10285892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E1D81F-A5E3-BB20-FA1E-B54609E9782F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -462,8 +490,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="8768080"/>
-          <a:ext cx="4137890" cy="2844799"/>
+          <a:off x="669889" y="25022023"/>
+          <a:ext cx="5468444" cy="6028451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -474,23 +502,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>669889</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>27911</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>58056</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>60523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
+        <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E1D81F-A5E3-BB20-FA1E-B54609E9782F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6058998-354B-E0E4-4174-82FE3E9BD784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -506,8 +534,228 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="669889" y="14709670"/>
-          <a:ext cx="3377363" cy="3770364"/>
+          <a:off x="674914" y="10305143"/>
+          <a:ext cx="7772400" cy="2702123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323972</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75686B90-6FFA-0AA1-30CF-25730E2C28D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="13512800"/>
+          <a:ext cx="7748029" cy="3468914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CE7DE5-18B7-EBAF-215E-ECB4C71031F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="17840960"/>
+          <a:ext cx="5831840" cy="2688113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C98737-635F-E4BE-56C4-1014FBBD3A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="5486400"/>
+          <a:ext cx="5913120" cy="4241905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>21237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34711355-00BC-873F-0F01-4C76C4890C1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="28844240"/>
+          <a:ext cx="4907280" cy="3882037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>15643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73BC1B3F-9F5C-C848-5DF2-94B08ADD24DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="35214560"/>
+          <a:ext cx="7772400" cy="3876443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -816,94 +1064,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF8BC44-07CC-451C-A5EF-8A2104260014}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:Q187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="197" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="197" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -915,33 +1201,33 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -954,115 +1240,261 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B45" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>5</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
         <v>6</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B102" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
         <v>7</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B119" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
         <v>8</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B154" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
         <v>9</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B177" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B178" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
         <v>10</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B186" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B187" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B81:D81"/>
     <mergeCell ref="B17:K18"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B9:K9"/>
